--- a/biology/Médecine/Société_française_de_cardiologie/Société_française_de_cardiologie.xlsx
+++ b/biology/Médecine/Société_française_de_cardiologie/Société_française_de_cardiologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_cardiologie</t>
+          <t>Société_française_de_cardiologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Société française de cardiologie[1] (SFC) est une organisation de recherche scientifique dans le domaine cardiovasculaire. Créée en 1937, le but premier de cette société savante est de faire avancer la recherche contre les maladies cardiovasculaires. Elle s'implique principalement dans trois domaines : le développement et la propagation de la recherche scientifique dans le domaine cardiovasculaire, l'assurance d'une formation continue de qualité et l'édition de recommandations et des règles du bon exercice de la pratique cardiologique.
-Elle est membre de la Société européenne de cardiologie[2]. Parmi ses activités, la Société française organise un congrès annuel à Paris chaque janvier et elle organise aussi des réunions scientifiques chaque année à Paris. Selon leurs spécialités, les membres peuvent s'adresser à l'un des 17 groupes de travail de la société.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Société française de cardiologie (SFC) est une organisation de recherche scientifique dans le domaine cardiovasculaire. Créée en 1937, le but premier de cette société savante est de faire avancer la recherche contre les maladies cardiovasculaires. Elle s'implique principalement dans trois domaines : le développement et la propagation de la recherche scientifique dans le domaine cardiovasculaire, l'assurance d'une formation continue de qualité et l'édition de recommandations et des règles du bon exercice de la pratique cardiologique.
+Elle est membre de la Société européenne de cardiologie. Parmi ses activités, la Société française organise un congrès annuel à Paris chaque janvier et elle organise aussi des réunions scientifiques chaque année à Paris. Selon leurs spécialités, les membres peuvent s'adresser à l'un des 17 groupes de travail de la société.
 La Société française de cardiologie publie deux revues spécialisée en cardiologie : 
-Archives of Cardiovascular Diseases : une publication mensuelle en anglais, éditée par Elsevier[3].
-Archives des Maladies du Cœur et des Vaisseaux - Pratique : une publication mensuelle en français, éditée par Elsevier[4].
+Archives of Cardiovascular Diseases : une publication mensuelle en anglais, éditée par Elsevier.
+Archives des Maladies du Cœur et des Vaisseaux - Pratique : une publication mensuelle en français, éditée par Elsevier.
 Ces publications contiennent des articles portant sur les recherches cliniques, des études épidémiologiques, de nouvelles approches pour les méthodologiques cliniques, des articles de revues, des éditoriaux et des images de la médecine cardiovasculaire.
-La Société française de cardiologie peut travailler avec l'industrie pharmaceutique[5],[6] pour la réalisation de ses congrès.
+La Société française de cardiologie peut travailler avec l'industrie pharmaceutique, pour la réalisation de ses congrès.
 </t>
         </is>
       </c>
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_cardiologie</t>
+          <t>Société_française_de_cardiologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les missions de la Société Française de Cardiologie sont :
 Faire avancer la recherche ;
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_cardiologie</t>
+          <t>Société_française_de_cardiologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,14 +564,16 @@
           <t>Gouvernance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Présidence
 Le président de la Société française de cardiologie est le professeur Ariel Cohen, de l'Hôpital Saint-Antoine à Paris.
 Bureau
 La SFC est gérée par un bureau composé de neuf membres (dont le président actuel et la past-président) plus trois membres invités :
 Président : Pr Ariel Cohen, professeur en cardiologie à l'hôpital Saint-Antoine à Paris.
-Past-présidente : Pr Martine Gilard[7], professeure en cardiologie au CHU de Brest.
+Past-présidente : Pr Martine Gilard, professeure en cardiologie au CHU de Brest.
 Vice-président : Pr Christophe Leclercq, professeur en cardiologie au CHU de Rennes.
 Secrétaire général : Dr Serge Kownator, docteur en cardiologie au Centre Cardiologique et Vasculaire à Thionville.
 Secrétaire général adjoint chargé des relations européennes : Pr Bernard Iung, professeur en cardiologie à l'hôpital Bichat-Claude-Bernard à Paris.
@@ -566,7 +582,7 @@
 Trésorier : Pr Victor Aboyans, professeur en cardiologie au Centre hospitalier universitaire de Limoges.
 Secrétaire chargé des communautés : Pr Jean-Claude Deharo, professeur en cardiologie à l'Hôpital de la Timone à Marseille.
 Membre invité chargé de la FMC/DPC :  Dr Guillaume Bonnet, docteur en cardiologie au CHU de Bordeaux.
-Membre invité chargé des Archives des Maladies du Cœur et des Vaisseaux - Pratique[4] : Pr Jean-Yves Artigou, professeur en cardiologie à l'hôpital René-Muret-Brigottini à Sevran.
+Membre invité chargé des Archives des Maladies du Cœur et des Vaisseaux - Pratique : Pr Jean-Yves Artigou, professeur en cardiologie à l'hôpital René-Muret-Brigottini à Sevran.
 Membre invité : Dr Franck Albert, docteur en cardiologie au Centre hospitalier Louis-Pasteur au Coudray.</t>
         </is>
       </c>
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_cardiologie</t>
+          <t>Société_française_de_cardiologie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,6 +612,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_cardiologie</t>
+          <t>Société_française_de_cardiologie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,9 +639,11 @@
           <t>Financement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon La Tribune, La Société française de cardiologie « est financée en partie grâce aux partenariats noués avec les laboratoires pharmaceutiques, dont Servier »[8]. Selon le Formindep, les accords de sponsoring peuvent s'élever à une centaine de milliers d'euros par congrès[8]. Selon Reporterre, la Société française de cardiologie serait également financée par Sanofi-Aventis[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon La Tribune, La Société française de cardiologie « est financée en partie grâce aux partenariats noués avec les laboratoires pharmaceutiques, dont Servier ». Selon le Formindep, les accords de sponsoring peuvent s'élever à une centaine de milliers d'euros par congrès. Selon Reporterre, la Société française de cardiologie serait également financée par Sanofi-Aventis.
 </t>
         </is>
       </c>
